--- a/contents/Coevaluación_CatCare.xlsx
+++ b/contents/Coevaluación_CatCare.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis Alejandro\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis Alejandro\Desktop\CatCare\contents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{825E1683-F4AB-46A9-A4B1-60B1D19579DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{547D7747-2F04-4780-A3D1-6B2CC4A71C55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -135,22 +135,22 @@
     <t>Por ahora, consideramos que está bien hecho, pues el login se encuentra dentro de la misma página de landing, por lo cual la experiencia del usuario no se vé afectada.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cambio realizado, para que cuando este sobre la pagina muestre en que categoria esta </t>
-  </si>
-  <si>
     <t xml:space="preserve">Cambio realizado, ya no tiene la conexión a otra pagina </t>
   </si>
   <si>
     <t>Cambio Realizado.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cambio realizado, elminanndo dichos iconos que generaban ambigüedad </t>
-  </si>
-  <si>
     <t>Cambio realizado a traves de un padding y border mayor</t>
   </si>
   <si>
     <t xml:space="preserve">Cambio realizado, a traves del aumento de 0,5 em (diseño responnsivo) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cambio realizado, eliminando dichos iconos que generaban ambigüedad </t>
+  </si>
+  <si>
+    <t>Cambio realizado, para que cuando este sobre la pagina muestre en que categoria está</t>
   </si>
 </sst>
 </file>
@@ -591,7 +591,7 @@
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="5" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -629,7 +629,7 @@
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -679,7 +679,7 @@
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -739,7 +739,7 @@
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -843,7 +843,7 @@
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -859,7 +859,7 @@
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
